--- a/public/mezidfiiller1.xlsx
+++ b/public/mezidfiiller1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziyao\Desktop\Coding Projects\wordcardarabıc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B81ED0-52F2-4F01-874C-FFFBA6B58DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FBA011-5D96-451B-B5C3-4E246DD01C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="180" windowWidth="12390" windowHeight="15420" xr2:uid="{530088D5-C0D1-4B54-9791-CDAD199E92DF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{530088D5-C0D1-4B54-9791-CDAD199E92DF}"/>
   </bookViews>
   <sheets>
     <sheet name="mezidfiiller" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>arabic_word</t>
   </si>
@@ -229,6 +229,48 @@
   </si>
   <si>
     <t>أَوْضَحَ</t>
+  </si>
+  <si>
+    <t>Uyandırdı</t>
+  </si>
+  <si>
+    <t>Uyandırıyor</t>
+  </si>
+  <si>
+    <t>Uyandır ! // İkaz et !</t>
+  </si>
+  <si>
+    <t>Uyandırmak</t>
+  </si>
+  <si>
+    <t>Varlıklı ve müreffeh oldu</t>
+  </si>
+  <si>
+    <t>Kesin olarak bildi</t>
+  </si>
+  <si>
+    <t>Kuruttu</t>
+  </si>
+  <si>
+    <t>أَيْقَظَ</t>
+  </si>
+  <si>
+    <t>يُوقِظُ</t>
+  </si>
+  <si>
+    <t>أَيْقِظْ</t>
+  </si>
+  <si>
+    <t>إِيقَاظٌ</t>
+  </si>
+  <si>
+    <t>أَيْسَرَ</t>
+  </si>
+  <si>
+    <t>أَيْقَنَ</t>
+  </si>
+  <si>
+    <t>أَيْبَسَ</t>
   </si>
 </sst>
 </file>
@@ -686,9 +728,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169D02FE-2490-4A36-BC86-DF3D8E3737B4}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="48.375" defaultRowHeight="37.5"/>
   <cols>
@@ -952,14 +996,61 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="69.75">
-      <c r="A33" s="10"/>
-    </row>
-    <row r="34" spans="1:1" ht="69.75">
-      <c r="A34" s="10"/>
-    </row>
-    <row r="35" spans="1:1" ht="69.75">
-      <c r="A35" s="10"/>
+    <row r="33" spans="1:2" ht="69.75">
+      <c r="A33" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="69.75">
+      <c r="A34" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="69.75">
+      <c r="A35" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="69.75">
+      <c r="A36" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="69.75">
+      <c r="A37" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="69.75">
+      <c r="A38" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="69.75">
+      <c r="A39" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
